--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_DepoFRAFuturesQuotes.xlsx
@@ -15,9 +15,6 @@
     <sheet name="ImmFra6M " sheetId="19" r:id="rId6"/>
     <sheet name="FuturesHWConvAdj" sheetId="14" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Currency</t>
   </si>
@@ -204,6 +201,9 @@
   <si>
     <t>T1</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +219,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -911,22 +911,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1221,7 +1205,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="14" customWidth="1"/>
@@ -1233,13 +1217,13 @@
     <col min="8" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="93" t="s">
         <v>29</v>
@@ -1248,14 +1232,14 @@
       <c r="D2" s="94"/>
       <c r="E2" s="95"/>
     </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="18"/>
       <c r="C4" s="21" t="s">
@@ -1264,7 +1248,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="18"/>
       <c r="C5" s="21" t="s">
@@ -1275,7 +1259,7 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="21" t="s">
@@ -1286,7 +1270,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="21" t="s">
@@ -1297,19 +1281,18 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="18"/>
       <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="18"/>
       <c r="C9" s="21" t="s">
@@ -1320,15 +1303,15 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
         <v>28</v>
       </c>
@@ -1336,13 +1319,13 @@
       <c r="D12" s="94"/>
       <c r="E12" s="95"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="21" t="s">
         <v>0</v>
@@ -1352,7 +1335,7 @@
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="21" t="s">
         <v>23</v>
@@ -1362,7 +1345,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="21" t="s">
         <v>24</v>
@@ -1372,7 +1355,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="21" t="s">
         <v>25</v>
@@ -1382,7 +1365,7 @@
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -1414,7 +1397,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="29" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="29" bestFit="1" customWidth="1"/>
@@ -1425,7 +1408,7 @@
     <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1433,24 +1416,24 @@
       <c r="E1" s="32"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="72"/>
       <c r="C2" s="64" t="str">
         <f>Currency&amp;"_010_"&amp;"Deposits.xml"</f>
         <v>EUR_010_Deposits.xml</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="73" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="66" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="35"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -1469,7 +1452,7 @@
       </c>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="69" t="s">
         <v>2</v>
@@ -1488,7 +1471,7 @@
       </c>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="69" t="s">
         <v>3</v>
@@ -1507,7 +1490,7 @@
       </c>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -1526,7 +1509,7 @@
       </c>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="69" t="s">
         <v>5</v>
@@ -1545,7 +1528,7 @@
       </c>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="69" t="s">
         <v>6</v>
@@ -1564,7 +1547,7 @@
       </c>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="69" t="s">
         <v>7</v>
@@ -1583,7 +1566,7 @@
       </c>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="69" t="s">
         <v>8</v>
@@ -1602,7 +1585,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="69" t="s">
         <v>9</v>
@@ -1621,7 +1604,7 @@
       </c>
       <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="69" t="s">
         <v>10</v>
@@ -1640,7 +1623,7 @@
       </c>
       <c r="F12" s="35"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="69" t="s">
         <v>11</v>
@@ -1659,7 +1642,7 @@
       </c>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="69" t="s">
         <v>12</v>
@@ -1678,7 +1661,7 @@
       </c>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="69" t="s">
         <v>48</v>
@@ -1697,7 +1680,7 @@
       </c>
       <c r="F15" s="35"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="69" t="s">
         <v>49</v>
@@ -1716,7 +1699,7 @@
       </c>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="69" t="s">
         <v>13</v>
@@ -1735,7 +1718,7 @@
       </c>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="69" t="s">
         <v>50</v>
@@ -1754,7 +1737,7 @@
       </c>
       <c r="F18" s="35"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="69" t="s">
         <v>51</v>
@@ -1773,7 +1756,7 @@
       </c>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="69" t="s">
         <v>14</v>
@@ -1792,7 +1775,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -1817,7 +1800,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1829,7 +1812,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1838,7 +1821,7 @@
       <c r="F1"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
@@ -1846,17 +1829,17 @@
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>EUR_010_FRA.xml</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="81" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="76" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
         <v/>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="82" t="s">
         <v>55</v>
@@ -1878,7 +1861,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="85" t="s">
         <v>54</v>
@@ -1900,7 +1883,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="82" t="s">
         <v>32</v>
@@ -1922,7 +1905,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -1944,7 +1927,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="82">
         <v>1</v>
@@ -1966,7 +1949,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="88">
         <v>2</v>
@@ -1988,7 +1971,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="88">
         <v>3</v>
@@ -2010,7 +1993,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="88">
         <v>4</v>
@@ -2032,7 +2015,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="88">
         <v>5</v>
@@ -2054,7 +2037,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="85">
         <v>6</v>
@@ -2076,7 +2059,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="82" t="s">
         <v>35</v>
@@ -2098,7 +2081,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="85" t="s">
         <v>36</v>
@@ -2120,7 +2103,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="88">
         <v>1</v>
@@ -2143,7 +2126,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="88">
         <v>2</v>
@@ -2166,7 +2149,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="88">
         <v>3</v>
@@ -2189,7 +2172,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="88">
         <v>4</v>
@@ -2212,7 +2195,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="88">
         <v>5</v>
@@ -2235,7 +2218,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="88">
         <v>6</v>
@@ -2258,7 +2241,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="88">
         <v>7</v>
@@ -2281,7 +2264,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="88">
         <v>8</v>
@@ -2304,7 +2287,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="88">
         <v>9</v>
@@ -2327,7 +2310,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="88">
         <v>10</v>
@@ -2350,7 +2333,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="88">
         <v>11</v>
@@ -2373,7 +2356,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="88">
         <v>12</v>
@@ -2396,7 +2379,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="88">
         <v>13</v>
@@ -2419,7 +2402,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="88">
         <v>14</v>
@@ -2442,7 +2425,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="88">
         <v>15</v>
@@ -2465,7 +2448,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="88">
         <v>16</v>
@@ -2488,7 +2471,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="88">
         <v>17</v>
@@ -2511,7 +2494,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="88">
         <v>18</v>
@@ -2534,7 +2517,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="82" t="s">
         <v>52</v>
@@ -2556,7 +2539,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="85" t="s">
         <v>53</v>
@@ -2578,7 +2561,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="91">
         <v>12</v>
@@ -2600,7 +2583,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="13.5" thickBot="1">
+    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2626,7 +2609,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="29" bestFit="1" customWidth="1"/>
@@ -2639,7 +2622,7 @@
     <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="50"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2653,7 +2636,7 @@
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="67" t="s">
         <v>15</v>
@@ -2668,17 +2651,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>EUR_010_FUT1M.xml</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="66" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="68">
         <v>1</v>
@@ -2704,7 +2687,7 @@
       </c>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="69">
         <v>2</v>
@@ -2729,7 +2712,7 @@
       </c>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="69">
         <v>3</v>
@@ -2754,7 +2737,7 @@
       </c>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="69">
         <v>4</v>
@@ -2779,7 +2762,7 @@
       </c>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="69">
         <v>5</v>
@@ -2804,7 +2787,7 @@
       </c>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="69">
         <v>6</v>
@@ -2829,7 +2812,7 @@
       </c>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="69">
         <v>7</v>
@@ -2854,7 +2837,7 @@
       </c>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="69">
         <v>8</v>
@@ -2879,7 +2862,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="69">
         <v>9</v>
@@ -2904,7 +2887,7 @@
       </c>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="69">
         <v>10</v>
@@ -2929,7 +2912,7 @@
       </c>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="69">
         <v>11</v>
@@ -2954,7 +2937,7 @@
       </c>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="69">
         <v>12</v>
@@ -2979,7 +2962,7 @@
       </c>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="69">
         <v>13</v>
@@ -3004,7 +2987,7 @@
       </c>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="69">
         <v>14</v>
@@ -3029,7 +3012,7 @@
       </c>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="69">
         <v>15</v>
@@ -3054,7 +3037,7 @@
       </c>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="69">
         <v>16</v>
@@ -3079,7 +3062,7 @@
       </c>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="69">
         <v>17</v>
@@ -3104,7 +3087,7 @@
       </c>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="69">
         <v>18</v>
@@ -3129,7 +3112,7 @@
       </c>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="69">
         <v>19</v>
@@ -3154,7 +3137,7 @@
       </c>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="69">
         <v>20</v>
@@ -3179,7 +3162,7 @@
       </c>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="69">
         <v>21</v>
@@ -3204,7 +3187,7 @@
       </c>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="69">
         <v>22</v>
@@ -3229,7 +3212,7 @@
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="69">
         <v>23</v>
@@ -3254,7 +3237,7 @@
       </c>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="69">
         <v>24</v>
@@ -3279,7 +3262,7 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="69">
         <v>25</v>
@@ -3304,7 +3287,7 @@
       </c>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="69">
         <v>26</v>
@@ -3329,7 +3312,7 @@
       </c>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="69">
         <v>27</v>
@@ -3354,7 +3337,7 @@
       </c>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="69">
         <v>28</v>
@@ -3379,7 +3362,7 @@
       </c>
       <c r="H30" s="56"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="69">
         <v>29</v>
@@ -3404,7 +3387,7 @@
       </c>
       <c r="H31" s="56"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="69">
         <v>30</v>
@@ -3429,7 +3412,7 @@
       </c>
       <c r="H32" s="56"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="69">
         <v>31</v>
@@ -3454,7 +3437,7 @@
       </c>
       <c r="H33" s="56"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="69">
         <v>32</v>
@@ -3479,7 +3462,7 @@
       </c>
       <c r="H34" s="56"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="69">
         <v>33</v>
@@ -3504,7 +3487,7 @@
       </c>
       <c r="H35" s="56"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="69">
         <v>34</v>
@@ -3529,7 +3512,7 @@
       </c>
       <c r="H36" s="56"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="69">
         <v>35</v>
@@ -3554,7 +3537,7 @@
       </c>
       <c r="H37" s="56"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="69">
         <v>36</v>
@@ -3579,7 +3562,7 @@
       </c>
       <c r="H38" s="56"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="69">
         <v>37</v>
@@ -3604,7 +3587,7 @@
       </c>
       <c r="H39" s="56"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="69">
         <v>38</v>
@@ -3629,7 +3612,7 @@
       </c>
       <c r="H40" s="56"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="69">
         <v>39</v>
@@ -3654,7 +3637,7 @@
       </c>
       <c r="H41" s="56"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="69">
         <v>40</v>
@@ -3679,7 +3662,7 @@
       </c>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="69">
         <v>41</v>
@@ -3704,7 +3687,7 @@
       </c>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="69">
         <v>42</v>
@@ -3729,7 +3712,7 @@
       </c>
       <c r="H44" s="56"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="69">
         <v>43</v>
@@ -3754,7 +3737,7 @@
       </c>
       <c r="H45" s="56"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="69">
         <v>44</v>
@@ -3779,7 +3762,7 @@
       </c>
       <c r="H46" s="56"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="69">
         <v>45</v>
@@ -3804,7 +3787,7 @@
       </c>
       <c r="H47" s="56"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="69">
         <v>46</v>
@@ -3829,7 +3812,7 @@
       </c>
       <c r="H48" s="56"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="69">
         <v>47</v>
@@ -3854,7 +3837,7 @@
       </c>
       <c r="H49" s="56"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="69">
         <v>48</v>
@@ -3879,7 +3862,7 @@
       </c>
       <c r="H50" s="56"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
       <c r="B51" s="69">
         <v>49</v>
@@ -3904,7 +3887,7 @@
       </c>
       <c r="H51" s="56"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
       <c r="B52" s="69">
         <v>50</v>
@@ -3929,7 +3912,7 @@
       </c>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
       <c r="B53" s="69">
         <v>51</v>
@@ -3954,7 +3937,7 @@
       </c>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="69">
         <v>52</v>
@@ -3979,7 +3962,7 @@
       </c>
       <c r="H54" s="56"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
       <c r="B55" s="69">
         <v>53</v>
@@ -4004,7 +3987,7 @@
       </c>
       <c r="H55" s="56"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
       <c r="B56" s="69">
         <v>54</v>
@@ -4029,7 +4012,7 @@
       </c>
       <c r="H56" s="56"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
       <c r="B57" s="69">
         <v>55</v>
@@ -4054,7 +4037,7 @@
       </c>
       <c r="H57" s="56"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
       <c r="B58" s="69">
         <v>56</v>
@@ -4079,7 +4062,7 @@
       </c>
       <c r="H58" s="56"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
       <c r="B59" s="69">
         <v>57</v>
@@ -4104,7 +4087,7 @@
       </c>
       <c r="H59" s="56"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
       <c r="B60" s="69">
         <v>58</v>
@@ -4129,7 +4112,7 @@
       </c>
       <c r="H60" s="56"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
       <c r="B61" s="69">
         <v>59</v>
@@ -4154,7 +4137,7 @@
       </c>
       <c r="H61" s="56"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
       <c r="B62" s="69">
         <v>60</v>
@@ -4179,7 +4162,7 @@
       </c>
       <c r="H62" s="56"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
       <c r="B63" s="69">
         <v>61</v>
@@ -4204,7 +4187,7 @@
       </c>
       <c r="H63" s="56"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
       <c r="B64" s="69">
         <v>62</v>
@@ -4229,7 +4212,7 @@
       </c>
       <c r="H64" s="56"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
       <c r="B65" s="69">
         <v>63</v>
@@ -4254,7 +4237,7 @@
       </c>
       <c r="H65" s="56"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
       <c r="B66" s="69">
         <v>64</v>
@@ -4279,7 +4262,7 @@
       </c>
       <c r="H66" s="56"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
       <c r="B67" s="69">
         <v>65</v>
@@ -4304,7 +4287,7 @@
       </c>
       <c r="H67" s="56"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="69">
         <v>66</v>
@@ -4329,7 +4312,7 @@
       </c>
       <c r="H68" s="56"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="69">
         <v>67</v>
@@ -4354,7 +4337,7 @@
       </c>
       <c r="H69" s="56"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
       <c r="B70" s="69">
         <v>68</v>
@@ -4379,7 +4362,7 @@
       </c>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
       <c r="B71" s="69">
         <v>69</v>
@@ -4404,7 +4387,7 @@
       </c>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="57"/>
       <c r="B72" s="69">
         <v>70</v>
@@ -4429,7 +4412,7 @@
       </c>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
       <c r="B73" s="69">
         <v>71</v>
@@ -4454,7 +4437,7 @@
       </c>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
       <c r="B74" s="69">
         <v>72</v>
@@ -4479,7 +4462,7 @@
       </c>
       <c r="H74" s="56"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="57"/>
       <c r="B75" s="69">
         <v>73</v>
@@ -4504,7 +4487,7 @@
       </c>
       <c r="H75" s="56"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
       <c r="B76" s="69">
         <v>74</v>
@@ -4529,7 +4512,7 @@
       </c>
       <c r="H76" s="56"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="57"/>
       <c r="B77" s="69">
         <v>75</v>
@@ -4554,7 +4537,7 @@
       </c>
       <c r="H77" s="56"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="57"/>
       <c r="B78" s="69">
         <v>76</v>
@@ -4579,7 +4562,7 @@
       </c>
       <c r="H78" s="56"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="57"/>
       <c r="B79" s="69">
         <v>77</v>
@@ -4604,7 +4587,7 @@
       </c>
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="57"/>
       <c r="B80" s="69">
         <v>78</v>
@@ -4629,7 +4612,7 @@
       </c>
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="57"/>
       <c r="B81" s="69">
         <v>79</v>
@@ -4654,7 +4637,7 @@
       </c>
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="57"/>
       <c r="B82" s="69">
         <v>80</v>
@@ -4679,7 +4662,7 @@
       </c>
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="57"/>
       <c r="B83" s="69">
         <v>81</v>
@@ -4704,7 +4687,7 @@
       </c>
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="57"/>
       <c r="B84" s="69">
         <v>82</v>
@@ -4729,7 +4712,7 @@
       </c>
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="57"/>
       <c r="B85" s="69">
         <v>83</v>
@@ -4754,7 +4737,7 @@
       </c>
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="57"/>
       <c r="B86" s="69">
         <v>84</v>
@@ -4779,7 +4762,7 @@
       </c>
       <c r="H86" s="56"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
       <c r="B87" s="69">
         <v>85</v>
@@ -4804,7 +4787,7 @@
       </c>
       <c r="H87" s="56"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="57"/>
       <c r="B88" s="69">
         <v>86</v>
@@ -4829,7 +4812,7 @@
       </c>
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="57"/>
       <c r="B89" s="69">
         <v>87</v>
@@ -4854,7 +4837,7 @@
       </c>
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="57"/>
       <c r="B90" s="69">
         <v>88</v>
@@ -4879,7 +4862,7 @@
       </c>
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="57"/>
       <c r="B91" s="69">
         <v>89</v>
@@ -4904,7 +4887,7 @@
       </c>
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="57"/>
       <c r="B92" s="69">
         <v>90</v>
@@ -4929,7 +4912,7 @@
       </c>
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="57"/>
       <c r="B93" s="69">
         <v>91</v>
@@ -4954,7 +4937,7 @@
       </c>
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
       <c r="B94" s="69">
         <v>92</v>
@@ -4979,7 +4962,7 @@
       </c>
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="57"/>
       <c r="B95" s="69">
         <v>93</v>
@@ -5004,7 +4987,7 @@
       </c>
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="57"/>
       <c r="B96" s="69">
         <v>94</v>
@@ -5029,7 +5012,7 @@
       </c>
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="57"/>
       <c r="B97" s="69">
         <v>95</v>
@@ -5054,7 +5037,7 @@
       </c>
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="57"/>
       <c r="B98" s="69">
         <v>96</v>
@@ -5079,7 +5062,7 @@
       </c>
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="57"/>
       <c r="B99" s="69">
         <v>97</v>
@@ -5104,7 +5087,7 @@
       </c>
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="57"/>
       <c r="B100" s="69">
         <v>98</v>
@@ -5129,7 +5112,7 @@
       </c>
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="57"/>
       <c r="B101" s="69">
         <v>99</v>
@@ -5154,7 +5137,7 @@
       </c>
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="57"/>
       <c r="B102" s="69">
         <v>100</v>
@@ -5179,7 +5162,7 @@
       </c>
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="57"/>
       <c r="B103" s="69">
         <v>101</v>
@@ -5204,7 +5187,7 @@
       </c>
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="57"/>
       <c r="B104" s="69">
         <v>102</v>
@@ -5229,7 +5212,7 @@
       </c>
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="57"/>
       <c r="B105" s="69">
         <v>103</v>
@@ -5254,7 +5237,7 @@
       </c>
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="57"/>
       <c r="B106" s="69">
         <v>104</v>
@@ -5279,7 +5262,7 @@
       </c>
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="57"/>
       <c r="B107" s="69">
         <v>105</v>
@@ -5304,7 +5287,7 @@
       </c>
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="57"/>
       <c r="B108" s="69">
         <v>106</v>
@@ -5329,7 +5312,7 @@
       </c>
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="57"/>
       <c r="B109" s="69">
         <v>107</v>
@@ -5354,7 +5337,7 @@
       </c>
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="57"/>
       <c r="B110" s="69">
         <v>108</v>
@@ -5379,7 +5362,7 @@
       </c>
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="57"/>
       <c r="B111" s="69">
         <v>109</v>
@@ -5404,7 +5387,7 @@
       </c>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="57"/>
       <c r="B112" s="69">
         <v>110</v>
@@ -5429,7 +5412,7 @@
       </c>
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="57"/>
       <c r="B113" s="69">
         <v>111</v>
@@ -5454,7 +5437,7 @@
       </c>
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
       <c r="B114" s="69">
         <v>112</v>
@@ -5479,7 +5462,7 @@
       </c>
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="57"/>
       <c r="B115" s="69">
         <v>113</v>
@@ -5504,7 +5487,7 @@
       </c>
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="57"/>
       <c r="B116" s="69">
         <v>114</v>
@@ -5529,7 +5512,7 @@
       </c>
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="57"/>
       <c r="B117" s="69">
         <v>115</v>
@@ -5554,7 +5537,7 @@
       </c>
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="57"/>
       <c r="B118" s="69">
         <v>116</v>
@@ -5579,7 +5562,7 @@
       </c>
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="57"/>
       <c r="B119" s="69">
         <v>117</v>
@@ -5604,7 +5587,7 @@
       </c>
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="57"/>
       <c r="B120" s="69">
         <v>118</v>
@@ -5629,7 +5612,7 @@
       </c>
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="57"/>
       <c r="B121" s="69">
         <v>119</v>
@@ -5654,7 +5637,7 @@
       </c>
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57"/>
       <c r="B122" s="69">
         <v>120</v>
@@ -5679,7 +5662,7 @@
       </c>
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -5706,7 +5689,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="29" bestFit="1" customWidth="1"/>
@@ -5719,7 +5702,7 @@
     <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="50"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -5733,7 +5716,7 @@
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="67" t="s">
         <v>15</v>
@@ -5748,17 +5731,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>EUR_010_FUT3M.xml</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="66" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="68">
         <v>1</v>
@@ -5784,7 +5767,7 @@
       </c>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="69">
         <v>2</v>
@@ -5809,7 +5792,7 @@
       </c>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="69">
         <v>3</v>
@@ -5834,7 +5817,7 @@
       </c>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="69">
         <v>4</v>
@@ -5859,7 +5842,7 @@
       </c>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="69">
         <v>5</v>
@@ -5884,7 +5867,7 @@
       </c>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="69">
         <v>6</v>
@@ -5909,7 +5892,7 @@
       </c>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="69">
         <v>7</v>
@@ -5934,7 +5917,7 @@
       </c>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="69">
         <v>8</v>
@@ -5959,7 +5942,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="69">
         <v>9</v>
@@ -5984,7 +5967,7 @@
       </c>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="69">
         <v>10</v>
@@ -6009,7 +5992,7 @@
       </c>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="69">
         <v>11</v>
@@ -6034,7 +6017,7 @@
       </c>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="69">
         <v>12</v>
@@ -6059,7 +6042,7 @@
       </c>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="69">
         <v>13</v>
@@ -6084,7 +6067,7 @@
       </c>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="69">
         <v>14</v>
@@ -6109,7 +6092,7 @@
       </c>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="69">
         <v>15</v>
@@ -6134,7 +6117,7 @@
       </c>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="69">
         <v>16</v>
@@ -6159,7 +6142,7 @@
       </c>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="69">
         <v>17</v>
@@ -6184,7 +6167,7 @@
       </c>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="69">
         <v>18</v>
@@ -6209,7 +6192,7 @@
       </c>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="69">
         <v>19</v>
@@ -6234,7 +6217,7 @@
       </c>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="69">
         <v>20</v>
@@ -6259,7 +6242,7 @@
       </c>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="69">
         <v>21</v>
@@ -6284,7 +6267,7 @@
       </c>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="69">
         <v>22</v>
@@ -6309,7 +6292,7 @@
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="69">
         <v>23</v>
@@ -6334,7 +6317,7 @@
       </c>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="69">
         <v>24</v>
@@ -6359,7 +6342,7 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="69">
         <v>25</v>
@@ -6384,7 +6367,7 @@
       </c>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="69">
         <v>26</v>
@@ -6409,7 +6392,7 @@
       </c>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="69">
         <v>27</v>
@@ -6434,7 +6417,7 @@
       </c>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="69">
         <v>28</v>
@@ -6459,7 +6442,7 @@
       </c>
       <c r="H30" s="56"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="69">
         <v>29</v>
@@ -6484,7 +6467,7 @@
       </c>
       <c r="H31" s="56"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="69">
         <v>30</v>
@@ -6509,7 +6492,7 @@
       </c>
       <c r="H32" s="56"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="69">
         <v>31</v>
@@ -6534,7 +6517,7 @@
       </c>
       <c r="H33" s="56"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="69">
         <v>32</v>
@@ -6559,7 +6542,7 @@
       </c>
       <c r="H34" s="56"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="69">
         <v>33</v>
@@ -6584,7 +6567,7 @@
       </c>
       <c r="H35" s="56"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="69">
         <v>34</v>
@@ -6609,7 +6592,7 @@
       </c>
       <c r="H36" s="56"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="69">
         <v>35</v>
@@ -6634,7 +6617,7 @@
       </c>
       <c r="H37" s="56"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="69">
         <v>36</v>
@@ -6659,7 +6642,7 @@
       </c>
       <c r="H38" s="56"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="69">
         <v>37</v>
@@ -6684,7 +6667,7 @@
       </c>
       <c r="H39" s="56"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="69">
         <v>38</v>
@@ -6709,7 +6692,7 @@
       </c>
       <c r="H40" s="56"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="69">
         <v>39</v>
@@ -6734,7 +6717,7 @@
       </c>
       <c r="H41" s="56"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="69">
         <v>40</v>
@@ -6759,7 +6742,7 @@
       </c>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="69">
         <v>41</v>
@@ -6784,7 +6767,7 @@
       </c>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="69">
         <v>42</v>
@@ -6809,7 +6792,7 @@
       </c>
       <c r="H44" s="56"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="69">
         <v>43</v>
@@ -6834,7 +6817,7 @@
       </c>
       <c r="H45" s="56"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="69">
         <v>44</v>
@@ -6859,7 +6842,7 @@
       </c>
       <c r="H46" s="56"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="69">
         <v>45</v>
@@ -6884,7 +6867,7 @@
       </c>
       <c r="H47" s="56"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="69">
         <v>46</v>
@@ -6909,7 +6892,7 @@
       </c>
       <c r="H48" s="56"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="69">
         <v>47</v>
@@ -6934,7 +6917,7 @@
       </c>
       <c r="H49" s="56"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="69">
         <v>48</v>
@@ -6959,7 +6942,7 @@
       </c>
       <c r="H50" s="56"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
       <c r="B51" s="69">
         <v>49</v>
@@ -6984,7 +6967,7 @@
       </c>
       <c r="H51" s="56"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
       <c r="B52" s="69">
         <v>50</v>
@@ -7009,7 +6992,7 @@
       </c>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
       <c r="B53" s="69">
         <v>51</v>
@@ -7034,7 +7017,7 @@
       </c>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="69">
         <v>52</v>
@@ -7059,7 +7042,7 @@
       </c>
       <c r="H54" s="56"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
       <c r="B55" s="69">
         <v>53</v>
@@ -7084,7 +7067,7 @@
       </c>
       <c r="H55" s="56"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
       <c r="B56" s="69">
         <v>54</v>
@@ -7109,7 +7092,7 @@
       </c>
       <c r="H56" s="56"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
       <c r="B57" s="69">
         <v>55</v>
@@ -7134,7 +7117,7 @@
       </c>
       <c r="H57" s="56"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
       <c r="B58" s="69">
         <v>56</v>
@@ -7159,7 +7142,7 @@
       </c>
       <c r="H58" s="56"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
       <c r="B59" s="69">
         <v>57</v>
@@ -7184,7 +7167,7 @@
       </c>
       <c r="H59" s="56"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
       <c r="B60" s="69">
         <v>58</v>
@@ -7209,7 +7192,7 @@
       </c>
       <c r="H60" s="56"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
       <c r="B61" s="69">
         <v>59</v>
@@ -7234,7 +7217,7 @@
       </c>
       <c r="H61" s="56"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
       <c r="B62" s="69">
         <v>60</v>
@@ -7259,7 +7242,7 @@
       </c>
       <c r="H62" s="56"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
       <c r="B63" s="69">
         <v>61</v>
@@ -7284,7 +7267,7 @@
       </c>
       <c r="H63" s="56"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
       <c r="B64" s="69">
         <v>62</v>
@@ -7309,7 +7292,7 @@
       </c>
       <c r="H64" s="56"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
       <c r="B65" s="69">
         <v>63</v>
@@ -7334,7 +7317,7 @@
       </c>
       <c r="H65" s="56"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
       <c r="B66" s="69">
         <v>64</v>
@@ -7359,7 +7342,7 @@
       </c>
       <c r="H66" s="56"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
       <c r="B67" s="69">
         <v>65</v>
@@ -7384,7 +7367,7 @@
       </c>
       <c r="H67" s="56"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="69">
         <v>66</v>
@@ -7409,7 +7392,7 @@
       </c>
       <c r="H68" s="56"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="69">
         <v>67</v>
@@ -7434,7 +7417,7 @@
       </c>
       <c r="H69" s="56"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
       <c r="B70" s="69">
         <v>68</v>
@@ -7459,7 +7442,7 @@
       </c>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
       <c r="B71" s="69">
         <v>69</v>
@@ -7484,7 +7467,7 @@
       </c>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="57"/>
       <c r="B72" s="69">
         <v>70</v>
@@ -7509,7 +7492,7 @@
       </c>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
       <c r="B73" s="69">
         <v>71</v>
@@ -7534,7 +7517,7 @@
       </c>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
       <c r="B74" s="69">
         <v>72</v>
@@ -7559,7 +7542,7 @@
       </c>
       <c r="H74" s="56"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="57"/>
       <c r="B75" s="69">
         <v>73</v>
@@ -7584,7 +7567,7 @@
       </c>
       <c r="H75" s="56"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
       <c r="B76" s="69">
         <v>74</v>
@@ -7609,7 +7592,7 @@
       </c>
       <c r="H76" s="56"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="57"/>
       <c r="B77" s="69">
         <v>75</v>
@@ -7634,7 +7617,7 @@
       </c>
       <c r="H77" s="56"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="57"/>
       <c r="B78" s="69">
         <v>76</v>
@@ -7659,7 +7642,7 @@
       </c>
       <c r="H78" s="56"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="57"/>
       <c r="B79" s="69">
         <v>77</v>
@@ -7684,7 +7667,7 @@
       </c>
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="57"/>
       <c r="B80" s="69">
         <v>78</v>
@@ -7709,7 +7692,7 @@
       </c>
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="57"/>
       <c r="B81" s="69">
         <v>79</v>
@@ -7734,7 +7717,7 @@
       </c>
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="57"/>
       <c r="B82" s="69">
         <v>80</v>
@@ -7759,7 +7742,7 @@
       </c>
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="57"/>
       <c r="B83" s="69">
         <v>81</v>
@@ -7784,7 +7767,7 @@
       </c>
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="57"/>
       <c r="B84" s="69">
         <v>82</v>
@@ -7809,7 +7792,7 @@
       </c>
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="57"/>
       <c r="B85" s="69">
         <v>83</v>
@@ -7834,7 +7817,7 @@
       </c>
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="57"/>
       <c r="B86" s="69">
         <v>84</v>
@@ -7859,7 +7842,7 @@
       </c>
       <c r="H86" s="56"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
       <c r="B87" s="69">
         <v>85</v>
@@ -7884,7 +7867,7 @@
       </c>
       <c r="H87" s="56"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="57"/>
       <c r="B88" s="69">
         <v>86</v>
@@ -7909,7 +7892,7 @@
       </c>
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="57"/>
       <c r="B89" s="69">
         <v>87</v>
@@ -7934,7 +7917,7 @@
       </c>
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="57"/>
       <c r="B90" s="69">
         <v>88</v>
@@ -7959,7 +7942,7 @@
       </c>
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="57"/>
       <c r="B91" s="69">
         <v>89</v>
@@ -7984,7 +7967,7 @@
       </c>
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="57"/>
       <c r="B92" s="69">
         <v>90</v>
@@ -8009,7 +7992,7 @@
       </c>
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="57"/>
       <c r="B93" s="69">
         <v>91</v>
@@ -8034,7 +8017,7 @@
       </c>
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
       <c r="B94" s="69">
         <v>92</v>
@@ -8059,7 +8042,7 @@
       </c>
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="57"/>
       <c r="B95" s="69">
         <v>93</v>
@@ -8084,7 +8067,7 @@
       </c>
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="57"/>
       <c r="B96" s="69">
         <v>94</v>
@@ -8109,7 +8092,7 @@
       </c>
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="57"/>
       <c r="B97" s="69">
         <v>95</v>
@@ -8134,7 +8117,7 @@
       </c>
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="57"/>
       <c r="B98" s="69">
         <v>96</v>
@@ -8159,7 +8142,7 @@
       </c>
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="57"/>
       <c r="B99" s="69">
         <v>97</v>
@@ -8184,7 +8167,7 @@
       </c>
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="57"/>
       <c r="B100" s="69">
         <v>98</v>
@@ -8209,7 +8192,7 @@
       </c>
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="57"/>
       <c r="B101" s="69">
         <v>99</v>
@@ -8234,7 +8217,7 @@
       </c>
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="57"/>
       <c r="B102" s="69">
         <v>100</v>
@@ -8259,7 +8242,7 @@
       </c>
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="57"/>
       <c r="B103" s="69">
         <v>101</v>
@@ -8284,7 +8267,7 @@
       </c>
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="57"/>
       <c r="B104" s="69">
         <v>102</v>
@@ -8309,7 +8292,7 @@
       </c>
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="57"/>
       <c r="B105" s="69">
         <v>103</v>
@@ -8334,7 +8317,7 @@
       </c>
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="57"/>
       <c r="B106" s="69">
         <v>104</v>
@@ -8359,7 +8342,7 @@
       </c>
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="57"/>
       <c r="B107" s="69">
         <v>105</v>
@@ -8384,7 +8367,7 @@
       </c>
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="57"/>
       <c r="B108" s="69">
         <v>106</v>
@@ -8409,7 +8392,7 @@
       </c>
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="57"/>
       <c r="B109" s="69">
         <v>107</v>
@@ -8434,7 +8417,7 @@
       </c>
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="57"/>
       <c r="B110" s="69">
         <v>108</v>
@@ -8459,7 +8442,7 @@
       </c>
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="57"/>
       <c r="B111" s="69">
         <v>109</v>
@@ -8484,7 +8467,7 @@
       </c>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="57"/>
       <c r="B112" s="69">
         <v>110</v>
@@ -8509,7 +8492,7 @@
       </c>
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="57"/>
       <c r="B113" s="69">
         <v>111</v>
@@ -8534,7 +8517,7 @@
       </c>
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
       <c r="B114" s="69">
         <v>112</v>
@@ -8559,7 +8542,7 @@
       </c>
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="57"/>
       <c r="B115" s="69">
         <v>113</v>
@@ -8584,7 +8567,7 @@
       </c>
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="57"/>
       <c r="B116" s="69">
         <v>114</v>
@@ -8609,7 +8592,7 @@
       </c>
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="57"/>
       <c r="B117" s="69">
         <v>115</v>
@@ -8634,7 +8617,7 @@
       </c>
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="57"/>
       <c r="B118" s="69">
         <v>116</v>
@@ -8659,7 +8642,7 @@
       </c>
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="57"/>
       <c r="B119" s="69">
         <v>117</v>
@@ -8684,7 +8667,7 @@
       </c>
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="57"/>
       <c r="B120" s="69">
         <v>118</v>
@@ -8709,7 +8692,7 @@
       </c>
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="57"/>
       <c r="B121" s="69">
         <v>119</v>
@@ -8734,7 +8717,7 @@
       </c>
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57"/>
       <c r="B122" s="69">
         <v>120</v>
@@ -8759,7 +8742,7 @@
       </c>
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -8786,7 +8769,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="29" bestFit="1" customWidth="1"/>
@@ -8799,7 +8782,7 @@
     <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="50"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -8813,7 +8796,7 @@
       <c r="G1" s="53"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="67" t="s">
         <v>15</v>
@@ -8828,17 +8811,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>EUR_010_IMMFRA6M.xml</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="65" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="66" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="68">
         <v>1</v>
@@ -8864,7 +8847,7 @@
       </c>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="69">
         <v>2</v>
@@ -8889,7 +8872,7 @@
       </c>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="69">
         <v>3</v>
@@ -8914,7 +8897,7 @@
       </c>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="69">
         <v>4</v>
@@ -8939,7 +8922,7 @@
       </c>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="69">
         <v>5</v>
@@ -8964,7 +8947,7 @@
       </c>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="69">
         <v>6</v>
@@ -8989,7 +8972,7 @@
       </c>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="69">
         <v>7</v>
@@ -9014,7 +8997,7 @@
       </c>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="69">
         <v>8</v>
@@ -9039,7 +9022,7 @@
       </c>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="69">
         <v>9</v>
@@ -9064,7 +9047,7 @@
       </c>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="69">
         <v>10</v>
@@ -9089,7 +9072,7 @@
       </c>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="69">
         <v>11</v>
@@ -9114,7 +9097,7 @@
       </c>
       <c r="H13" s="56"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="69">
         <v>12</v>
@@ -9139,7 +9122,7 @@
       </c>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="69">
         <v>13</v>
@@ -9164,7 +9147,7 @@
       </c>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="69">
         <v>14</v>
@@ -9189,7 +9172,7 @@
       </c>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="69">
         <v>15</v>
@@ -9214,7 +9197,7 @@
       </c>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="69">
         <v>16</v>
@@ -9239,7 +9222,7 @@
       </c>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="69">
         <v>17</v>
@@ -9264,7 +9247,7 @@
       </c>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="69">
         <v>18</v>
@@ -9289,7 +9272,7 @@
       </c>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="69">
         <v>19</v>
@@ -9314,7 +9297,7 @@
       </c>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="69">
         <v>20</v>
@@ -9339,7 +9322,7 @@
       </c>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="69">
         <v>21</v>
@@ -9364,7 +9347,7 @@
       </c>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="69">
         <v>22</v>
@@ -9389,7 +9372,7 @@
       </c>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="69">
         <v>23</v>
@@ -9414,7 +9397,7 @@
       </c>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="69">
         <v>24</v>
@@ -9439,7 +9422,7 @@
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="69">
         <v>25</v>
@@ -9464,7 +9447,7 @@
       </c>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="69">
         <v>26</v>
@@ -9489,7 +9472,7 @@
       </c>
       <c r="H28" s="56"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="69">
         <v>27</v>
@@ -9514,7 +9497,7 @@
       </c>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="69">
         <v>28</v>
@@ -9539,7 +9522,7 @@
       </c>
       <c r="H30" s="56"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="69">
         <v>29</v>
@@ -9564,7 +9547,7 @@
       </c>
       <c r="H31" s="56"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="69">
         <v>30</v>
@@ -9589,7 +9572,7 @@
       </c>
       <c r="H32" s="56"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="69">
         <v>31</v>
@@ -9614,7 +9597,7 @@
       </c>
       <c r="H33" s="56"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="69">
         <v>32</v>
@@ -9639,7 +9622,7 @@
       </c>
       <c r="H34" s="56"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="69">
         <v>33</v>
@@ -9664,7 +9647,7 @@
       </c>
       <c r="H35" s="56"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="69">
         <v>34</v>
@@ -9689,7 +9672,7 @@
       </c>
       <c r="H36" s="56"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="69">
         <v>35</v>
@@ -9714,7 +9697,7 @@
       </c>
       <c r="H37" s="56"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="69">
         <v>36</v>
@@ -9739,7 +9722,7 @@
       </c>
       <c r="H38" s="56"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="69">
         <v>37</v>
@@ -9764,7 +9747,7 @@
       </c>
       <c r="H39" s="56"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="69">
         <v>38</v>
@@ -9789,7 +9772,7 @@
       </c>
       <c r="H40" s="56"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="69">
         <v>39</v>
@@ -9814,7 +9797,7 @@
       </c>
       <c r="H41" s="56"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="69">
         <v>40</v>
@@ -9839,7 +9822,7 @@
       </c>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="69">
         <v>41</v>
@@ -9864,7 +9847,7 @@
       </c>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="69">
         <v>42</v>
@@ -9889,7 +9872,7 @@
       </c>
       <c r="H44" s="56"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="69">
         <v>43</v>
@@ -9914,7 +9897,7 @@
       </c>
       <c r="H45" s="56"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="69">
         <v>44</v>
@@ -9939,7 +9922,7 @@
       </c>
       <c r="H46" s="56"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="69">
         <v>45</v>
@@ -9964,7 +9947,7 @@
       </c>
       <c r="H47" s="56"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="69">
         <v>46</v>
@@ -9989,7 +9972,7 @@
       </c>
       <c r="H48" s="56"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="69">
         <v>47</v>
@@ -10014,7 +9997,7 @@
       </c>
       <c r="H49" s="56"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="69">
         <v>48</v>
@@ -10039,7 +10022,7 @@
       </c>
       <c r="H50" s="56"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
       <c r="B51" s="69">
         <v>49</v>
@@ -10064,7 +10047,7 @@
       </c>
       <c r="H51" s="56"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
       <c r="B52" s="69">
         <v>50</v>
@@ -10089,7 +10072,7 @@
       </c>
       <c r="H52" s="56"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
       <c r="B53" s="69">
         <v>51</v>
@@ -10114,7 +10097,7 @@
       </c>
       <c r="H53" s="56"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="69">
         <v>52</v>
@@ -10139,7 +10122,7 @@
       </c>
       <c r="H54" s="56"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
       <c r="B55" s="69">
         <v>53</v>
@@ -10164,7 +10147,7 @@
       </c>
       <c r="H55" s="56"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
       <c r="B56" s="69">
         <v>54</v>
@@ -10189,7 +10172,7 @@
       </c>
       <c r="H56" s="56"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
       <c r="B57" s="69">
         <v>55</v>
@@ -10214,7 +10197,7 @@
       </c>
       <c r="H57" s="56"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
       <c r="B58" s="69">
         <v>56</v>
@@ -10239,7 +10222,7 @@
       </c>
       <c r="H58" s="56"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
       <c r="B59" s="69">
         <v>57</v>
@@ -10264,7 +10247,7 @@
       </c>
       <c r="H59" s="56"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
       <c r="B60" s="69">
         <v>58</v>
@@ -10289,7 +10272,7 @@
       </c>
       <c r="H60" s="56"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
       <c r="B61" s="69">
         <v>59</v>
@@ -10314,7 +10297,7 @@
       </c>
       <c r="H61" s="56"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
       <c r="B62" s="69">
         <v>60</v>
@@ -10339,7 +10322,7 @@
       </c>
       <c r="H62" s="56"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
       <c r="B63" s="69">
         <v>61</v>
@@ -10364,7 +10347,7 @@
       </c>
       <c r="H63" s="56"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
       <c r="B64" s="69">
         <v>62</v>
@@ -10389,7 +10372,7 @@
       </c>
       <c r="H64" s="56"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
       <c r="B65" s="69">
         <v>63</v>
@@ -10414,7 +10397,7 @@
       </c>
       <c r="H65" s="56"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
       <c r="B66" s="69">
         <v>64</v>
@@ -10439,7 +10422,7 @@
       </c>
       <c r="H66" s="56"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
       <c r="B67" s="69">
         <v>65</v>
@@ -10464,7 +10447,7 @@
       </c>
       <c r="H67" s="56"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="69">
         <v>66</v>
@@ -10489,7 +10472,7 @@
       </c>
       <c r="H68" s="56"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="69">
         <v>67</v>
@@ -10514,7 +10497,7 @@
       </c>
       <c r="H69" s="56"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
       <c r="B70" s="69">
         <v>68</v>
@@ -10539,7 +10522,7 @@
       </c>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
       <c r="B71" s="69">
         <v>69</v>
@@ -10564,7 +10547,7 @@
       </c>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="57"/>
       <c r="B72" s="69">
         <v>70</v>
@@ -10589,7 +10572,7 @@
       </c>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
       <c r="B73" s="69">
         <v>71</v>
@@ -10614,7 +10597,7 @@
       </c>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
       <c r="B74" s="69">
         <v>72</v>
@@ -10639,7 +10622,7 @@
       </c>
       <c r="H74" s="56"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="57"/>
       <c r="B75" s="69">
         <v>73</v>
@@ -10664,7 +10647,7 @@
       </c>
       <c r="H75" s="56"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
       <c r="B76" s="69">
         <v>74</v>
@@ -10689,7 +10672,7 @@
       </c>
       <c r="H76" s="56"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="57"/>
       <c r="B77" s="69">
         <v>75</v>
@@ -10714,7 +10697,7 @@
       </c>
       <c r="H77" s="56"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="57"/>
       <c r="B78" s="69">
         <v>76</v>
@@ -10739,7 +10722,7 @@
       </c>
       <c r="H78" s="56"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="57"/>
       <c r="B79" s="69">
         <v>77</v>
@@ -10764,7 +10747,7 @@
       </c>
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="57"/>
       <c r="B80" s="69">
         <v>78</v>
@@ -10789,7 +10772,7 @@
       </c>
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="57"/>
       <c r="B81" s="69">
         <v>79</v>
@@ -10814,7 +10797,7 @@
       </c>
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="57"/>
       <c r="B82" s="69">
         <v>80</v>
@@ -10839,7 +10822,7 @@
       </c>
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="57"/>
       <c r="B83" s="69">
         <v>81</v>
@@ -10864,7 +10847,7 @@
       </c>
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="57"/>
       <c r="B84" s="69">
         <v>82</v>
@@ -10889,7 +10872,7 @@
       </c>
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="57"/>
       <c r="B85" s="69">
         <v>83</v>
@@ -10914,7 +10897,7 @@
       </c>
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="57"/>
       <c r="B86" s="69">
         <v>84</v>
@@ -10939,7 +10922,7 @@
       </c>
       <c r="H86" s="56"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
       <c r="B87" s="69">
         <v>85</v>
@@ -10964,7 +10947,7 @@
       </c>
       <c r="H87" s="56"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="57"/>
       <c r="B88" s="69">
         <v>86</v>
@@ -10989,7 +10972,7 @@
       </c>
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="57"/>
       <c r="B89" s="69">
         <v>87</v>
@@ -11014,7 +10997,7 @@
       </c>
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="57"/>
       <c r="B90" s="69">
         <v>88</v>
@@ -11039,7 +11022,7 @@
       </c>
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="57"/>
       <c r="B91" s="69">
         <v>89</v>
@@ -11064,7 +11047,7 @@
       </c>
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="57"/>
       <c r="B92" s="69">
         <v>90</v>
@@ -11089,7 +11072,7 @@
       </c>
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="57"/>
       <c r="B93" s="69">
         <v>91</v>
@@ -11114,7 +11097,7 @@
       </c>
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="57"/>
       <c r="B94" s="69">
         <v>92</v>
@@ -11139,7 +11122,7 @@
       </c>
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="57"/>
       <c r="B95" s="69">
         <v>93</v>
@@ -11164,7 +11147,7 @@
       </c>
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="57"/>
       <c r="B96" s="69">
         <v>94</v>
@@ -11189,7 +11172,7 @@
       </c>
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="57"/>
       <c r="B97" s="69">
         <v>95</v>
@@ -11214,7 +11197,7 @@
       </c>
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="57"/>
       <c r="B98" s="69">
         <v>96</v>
@@ -11239,7 +11222,7 @@
       </c>
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="57"/>
       <c r="B99" s="69">
         <v>97</v>
@@ -11264,7 +11247,7 @@
       </c>
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="57"/>
       <c r="B100" s="69">
         <v>98</v>
@@ -11289,7 +11272,7 @@
       </c>
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="57"/>
       <c r="B101" s="69">
         <v>99</v>
@@ -11314,7 +11297,7 @@
       </c>
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="57"/>
       <c r="B102" s="69">
         <v>100</v>
@@ -11339,7 +11322,7 @@
       </c>
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="57"/>
       <c r="B103" s="69">
         <v>101</v>
@@ -11364,7 +11347,7 @@
       </c>
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="57"/>
       <c r="B104" s="69">
         <v>102</v>
@@ -11389,7 +11372,7 @@
       </c>
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="57"/>
       <c r="B105" s="69">
         <v>103</v>
@@ -11414,7 +11397,7 @@
       </c>
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="57"/>
       <c r="B106" s="69">
         <v>104</v>
@@ -11439,7 +11422,7 @@
       </c>
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="57"/>
       <c r="B107" s="69">
         <v>105</v>
@@ -11464,7 +11447,7 @@
       </c>
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="57"/>
       <c r="B108" s="69">
         <v>106</v>
@@ -11489,7 +11472,7 @@
       </c>
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="57"/>
       <c r="B109" s="69">
         <v>107</v>
@@ -11514,7 +11497,7 @@
       </c>
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="57"/>
       <c r="B110" s="69">
         <v>108</v>
@@ -11539,7 +11522,7 @@
       </c>
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="57"/>
       <c r="B111" s="69">
         <v>109</v>
@@ -11564,7 +11547,7 @@
       </c>
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="57"/>
       <c r="B112" s="69">
         <v>110</v>
@@ -11589,7 +11572,7 @@
       </c>
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="57"/>
       <c r="B113" s="69">
         <v>111</v>
@@ -11614,7 +11597,7 @@
       </c>
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
       <c r="B114" s="69">
         <v>112</v>
@@ -11639,7 +11622,7 @@
       </c>
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="57"/>
       <c r="B115" s="69">
         <v>113</v>
@@ -11664,7 +11647,7 @@
       </c>
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="57"/>
       <c r="B116" s="69">
         <v>114</v>
@@ -11689,7 +11672,7 @@
       </c>
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="57"/>
       <c r="B117" s="69">
         <v>115</v>
@@ -11714,7 +11697,7 @@
       </c>
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="57"/>
       <c r="B118" s="69">
         <v>116</v>
@@ -11739,7 +11722,7 @@
       </c>
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="57"/>
       <c r="B119" s="69">
         <v>117</v>
@@ -11764,7 +11747,7 @@
       </c>
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="57"/>
       <c r="B120" s="69">
         <v>118</v>
@@ -11789,7 +11772,7 @@
       </c>
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="57"/>
       <c r="B121" s="69">
         <v>119</v>
@@ -11814,7 +11797,7 @@
       </c>
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57"/>
       <c r="B122" s="69">
         <v>120</v>
@@ -11839,7 +11822,7 @@
       </c>
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -11866,7 +11849,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="29" bestFit="1" customWidth="1"/>
@@ -11876,30 +11859,30 @@
     <col min="6" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="70" t="str">
         <f>Currency&amp;"_010_"&amp;"FuturesHWConvAdj.xml"</f>
         <v>EUR_010_FuturesHWConvAdj.xml</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="71" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="D2" s="62" t="str">
-        <f>_xll.ohRangeRetrieveError(C2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
         <v/>
       </c>
       <c r="E2" s="44"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="30" t="str">
         <f>Currency&amp;"HW_Volatility"&amp;QuoteSuffix</f>
@@ -11915,7 +11898,7 @@
       </c>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="30" t="str">
         <f>Currency&amp;"HW_MeanReversion"&amp;QuoteSuffix</f>
@@ -11931,7 +11914,7 @@
       </c>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_DepoFRAFuturesQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Currency</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>T1</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1284,9 @@
       <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>56</v>
+      <c r="D8" s="24" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -1424,12 +1422,12 @@
         <v>EUR_010_Deposits.xml</v>
       </c>
       <c r="D2" s="73" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="66" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="66" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="35"/>
     </row>
@@ -1830,12 +1828,12 @@
         <v>EUR_010_FRA.xml</v>
       </c>
       <c r="E2" s="81" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" s="76" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="76" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2652,12 +2650,12 @@
         <v>EUR_010_FUT1M.xml</v>
       </c>
       <c r="F2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="66" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="66" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="56"/>
     </row>
@@ -5732,12 +5730,12 @@
         <v>EUR_010_FUT3M.xml</v>
       </c>
       <c r="F2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="66" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="66" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="56"/>
     </row>
@@ -8812,12 +8810,12 @@
         <v>EUR_010_IMMFRA6M.xml</v>
       </c>
       <c r="F2" s="65" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="66" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="66" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="56"/>
     </row>
@@ -11873,12 +11871,12 @@
         <v>EUR_010_FuturesHWConvAdj.xml</v>
       </c>
       <c r="C2" s="71" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="62" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="62" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="44"/>
     </row>
